--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/521facdfb86f638d/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{5F4E78BE-EF71-455E-BAB9-0B21DF433F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8972B016-BD65-4522-A087-FC06640B67D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC0517C-110D-48D1-AEED-3922605357C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>feature</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>['Pclass', 'Sex','SibSp','Parch','Fare']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -168,6 +160,88 @@
   </si>
   <si>
     <t>['Pclass', 'Name','SibSp','Parch','Fare']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Pclass', 'Name','Age','Family','Fare', 'Cabin_s']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> ['Pclass', 'Sex','Age','Family','Fare', 'Cabin_s']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature6_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature6_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature5_3</t>
+  </si>
+  <si>
+    <t>feature5_4</t>
+  </si>
+  <si>
+    <t>['Pclass', 'Name', 'Family', 'Cabin_s','Fare']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Pclass', 'Sex', 'Family', 'Cabin_s','Fare']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_all2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Pclass','Name','Sex','Age','SibSp','Parch','Ticket','Fare','Cabin','Embarked']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Pclass','Name','Sex','Age','SibSp','Parch','Ticket','Fare','Cabin','Embarked', 'Cabin_s','Family']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_all3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Pclass','Name','Sex','Age','Ticket','Fare','Cabin','Embarked', 'Cabin_s','Family']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cabin_s, Family추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SibSp, Parch 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature5_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음으로 loss가 0.2대, acc가 0.8후반대로 진입(valid 말고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss 0.2대, acc 0.8후반대로 진입(valid 말고)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -270,12 +350,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="2"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="2"/>
       </top>
@@ -285,18 +372,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -305,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,13 +441,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,31 +800,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="16.58203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.58203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11" style="15" customWidth="1"/>
+    <col min="9" max="9" width="59.6640625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -683,10 +834,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -695,241 +846,736 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3">
+        <v>47</v>
+      </c>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="17">
         <v>100</v>
       </c>
-      <c r="D2" s="3">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="17">
+        <v>10</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>10</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3">
+      <c r="C4" s="20">
+        <v>500</v>
+      </c>
+      <c r="D4" s="20">
+        <v>10</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="20">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="20">
+        <v>280</v>
+      </c>
+      <c r="D5" s="20">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.74641000000000002</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20">
+        <v>800</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="20">
         <v>0.74161999999999995</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="20">
+        <v>600</v>
+      </c>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="20">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20">
+        <v>300</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20">
+        <v>200</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0.75597999999999999</v>
+      </c>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20">
+        <v>100</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17">
         <v>1000</v>
       </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="D11" s="17">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.74641000000000002</v>
+      </c>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="17">
+        <v>500</v>
+      </c>
+      <c r="D12" s="17">
+        <v>10</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="17">
+        <v>200</v>
+      </c>
+      <c r="D13" s="17">
+        <v>10</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.76075999999999999</v>
+      </c>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14" s="17">
+        <v>10</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="17">
+        <v>90</v>
+      </c>
+      <c r="D15" s="17">
+        <v>10</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="17">
+        <v>70</v>
+      </c>
+      <c r="D16" s="17">
+        <v>10</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="17">
+        <v>50</v>
+      </c>
+      <c r="D17" s="17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="20">
+        <v>500</v>
+      </c>
+      <c r="D18" s="20">
+        <v>10</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="20">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="20">
+        <v>200</v>
+      </c>
+      <c r="D19" s="20">
+        <v>10</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="20">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="20">
+        <v>100</v>
+      </c>
+      <c r="D20" s="20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.70813000000000004</v>
+      </c>
+      <c r="I20" s="20"/>
+    </row>
+    <row r="21" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="17">
+        <v>500</v>
+      </c>
+      <c r="D21" s="17">
+        <v>10</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.73204999999999998</v>
+      </c>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="17">
+        <v>300</v>
+      </c>
+      <c r="D22" s="17">
+        <v>10</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="17">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="17">
+        <v>200</v>
+      </c>
+      <c r="D23" s="17">
+        <v>10</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.75597999999999999</v>
+      </c>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="17">
+        <v>100</v>
+      </c>
+      <c r="D24" s="17">
+        <v>10</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="20">
+        <v>500</v>
+      </c>
+      <c r="D25" s="20">
+        <v>10</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="20">
         <v>0.72726999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="I25" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="20">
+        <v>200</v>
+      </c>
+      <c r="D26" s="20">
+        <v>10</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="17">
         <v>500</v>
       </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.77510999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3">
-        <v>280</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.74641000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3">
-        <v>800</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.74161999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3">
-        <v>600</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.74161999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3">
-        <v>300</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.75119000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
-        <v>200</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.75597999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="D27" s="17">
+        <v>10</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0.72248000000000001</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="17">
         <v>100</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.73684000000000005</v>
+      <c r="D28" s="17">
+        <v>10</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.73204999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +1590,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -955,75 +1601,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -1041,68 +1687,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435B7095-D6E7-48AC-96FF-B01A9E4C98B1}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="80.4140625" customWidth="1"/>
+    <col min="3" max="3" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC0517C-110D-48D1-AEED-3922605357C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF294A-DE8C-4F7B-A4AF-D4D8B2500E00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -441,9 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +481,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,20 +803,20 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.58203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11" style="15" customWidth="1"/>
-    <col min="9" max="9" width="59.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="21" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.58203125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11" style="14" customWidth="1"/>
+    <col min="9" max="9" width="59.6640625" style="14" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -848,733 +848,719 @@
       <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>100</v>
       </c>
-      <c r="D2" s="17">
-        <v>10</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="D2" s="16">
+        <v>10</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="16">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="16">
         <v>1000</v>
       </c>
-      <c r="D3" s="17">
-        <v>10</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="17">
+      <c r="D3" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="16">
         <v>0.72726999999999997</v>
       </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>500</v>
       </c>
-      <c r="D4" s="20">
-        <v>10</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="D4" s="19">
+        <v>10</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="19">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>280</v>
       </c>
-      <c r="D5" s="20">
-        <v>10</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="D5" s="19">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="19">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>800</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="20">
+      <c r="E6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="20" t="s">
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>600</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="E7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>300</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="E8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="19">
         <v>0.75119000000000002</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>200</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="20">
+      <c r="E9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="19">
         <v>0.75597999999999999</v>
       </c>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>100</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>1</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="20">
+      <c r="E10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="19">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>1000</v>
       </c>
-      <c r="D11" s="17">
-        <v>10</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="D11" s="16">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="16">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>500</v>
       </c>
-      <c r="D12" s="17">
-        <v>10</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="D12" s="16">
+        <v>10</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="16">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>200</v>
       </c>
-      <c r="D13" s="17">
-        <v>10</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="D13" s="16">
+        <v>10</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="16">
         <v>0.76075999999999999</v>
       </c>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>100</v>
       </c>
-      <c r="D14" s="17">
-        <v>10</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="D14" s="16">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>90</v>
       </c>
-      <c r="D15" s="17">
-        <v>10</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="D15" s="16">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>70</v>
       </c>
-      <c r="D16" s="17">
-        <v>10</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="17">
+      <c r="D16" s="16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>50</v>
       </c>
-      <c r="D17" s="17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="D17" s="16">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="16">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>500</v>
       </c>
-      <c r="D18" s="20">
-        <v>10</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="20">
-        <v>0.73684000000000005</v>
-      </c>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="D18" s="19">
+        <v>10</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <v>200</v>
       </c>
-      <c r="D19" s="20">
-        <v>10</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="20">
+      <c r="D19" s="19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+    </row>
+    <row r="20" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="19">
+        <v>100</v>
+      </c>
+      <c r="D20" s="19">
+        <v>10</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="16">
+        <v>500</v>
+      </c>
+      <c r="D21" s="16">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16">
+        <v>300</v>
+      </c>
+      <c r="D22" s="16">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="16">
+        <v>200</v>
+      </c>
+      <c r="D23" s="16">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="16">
+        <v>100</v>
+      </c>
+      <c r="D24" s="16">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="19">
+        <v>500</v>
+      </c>
+      <c r="D25" s="19">
+        <v>10</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="19">
+        <v>200</v>
+      </c>
+      <c r="D26" s="19">
+        <v>10</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="16">
+        <v>500</v>
+      </c>
+      <c r="D27" s="16">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.72248000000000001</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="16">
         <v>100</v>
       </c>
-      <c r="D20" s="20">
-        <v>10</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0.70813000000000004</v>
-      </c>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="17">
-        <v>500</v>
-      </c>
-      <c r="D21" s="17">
-        <v>10</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0.73204999999999998</v>
-      </c>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="17">
-        <v>300</v>
-      </c>
-      <c r="D22" s="17">
-        <v>10</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0.75119000000000002</v>
-      </c>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="17">
-        <v>200</v>
-      </c>
-      <c r="D23" s="17">
-        <v>10</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0.75597999999999999</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="17">
-        <v>100</v>
-      </c>
-      <c r="D24" s="17">
-        <v>10</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0.74161999999999995</v>
-      </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="20">
-        <v>500</v>
-      </c>
-      <c r="D25" s="20">
-        <v>10</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0.72726999999999997</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="20">
-        <v>200</v>
-      </c>
-      <c r="D26" s="20">
-        <v>10</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0.74161999999999995</v>
-      </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="17">
-        <v>500</v>
-      </c>
-      <c r="D27" s="17">
-        <v>10</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0.72248000000000001</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="17">
-        <v>100</v>
-      </c>
-      <c r="D28" s="17">
-        <v>10</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="17">
+      <c r="D28" s="16">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16">
         <v>0.73204999999999998</v>
       </c>
     </row>
@@ -1601,10 +1587,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7"/>
+      <c r="A1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1701,13 +1687,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1737,72 +1723,72 @@
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF294A-DE8C-4F7B-A4AF-D4D8B2500E00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F44AC6-BD0E-4D0B-8B15-F6DBA66485D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,11 +237,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처음으로 loss가 0.2대, acc가 0.8후반대로 진입(valid 말고)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loss 0.2대, acc 0.8후반대로 진입(valid 말고)</t>
+    <t>model2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>units= 25, activation ='selu'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>units = 50, activation = 'selu'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate = 0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>units = 1, activation = 'sigmoid'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model1보다 더 간단한 모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +327,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -413,13 +449,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +529,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1304,7 +1367,9 @@
       <c r="G18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19">
+        <v>0.74641000000000002</v>
+      </c>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
@@ -1315,7 +1380,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="19">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D19" s="19">
         <v>10</v>
@@ -1329,7 +1394,9 @@
       <c r="G19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="19">
+        <v>0.76554999999999995</v>
+      </c>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
@@ -1340,47 +1407,51 @@
         <v>49</v>
       </c>
       <c r="C20" s="19">
+        <v>200</v>
+      </c>
+      <c r="D20" s="19">
+        <v>10</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.76554999999999995</v>
+      </c>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="19">
         <v>100</v>
       </c>
-      <c r="D20" s="19">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="16">
-        <v>500</v>
-      </c>
-      <c r="D21" s="16">
-        <v>10</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
+      <c r="D21" s="19">
+        <v>10</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.7177</v>
+      </c>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
@@ -1390,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="16">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D22" s="16">
         <v>10</v>
@@ -1404,16 +1475,20 @@
       <c r="G22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="16"/>
+      <c r="H22" s="16">
+        <v>0.74641000000000002</v>
+      </c>
       <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="15"/>
+      <c r="A23" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="B23" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="16">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D23" s="16">
         <v>10</v>
@@ -1427,60 +1502,64 @@
       <c r="G23" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="16">
+        <v>0.75597999999999999</v>
+      </c>
       <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="15"/>
+      <c r="A24" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="B24" s="16" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="16">
+        <v>200</v>
+      </c>
+      <c r="D24" s="16">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="16">
         <v>100</v>
       </c>
-      <c r="D24" s="16">
-        <v>10</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="19">
-        <v>500</v>
-      </c>
-      <c r="D25" s="19">
-        <v>10</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0.72726999999999997</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>51</v>
-      </c>
+      <c r="D25" s="16">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
@@ -1490,55 +1569,53 @@
         <v>27</v>
       </c>
       <c r="C26" s="19">
+        <v>500</v>
+      </c>
+      <c r="D26" s="19">
+        <v>10</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="I26" s="19"/>
+    </row>
+    <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="19">
         <v>200</v>
       </c>
-      <c r="D26" s="19">
-        <v>10</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="19">
+      <c r="D27" s="19">
+        <v>10</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="16">
-        <v>500</v>
-      </c>
-      <c r="D27" s="16">
-        <v>10</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="16">
-        <v>0.72248000000000001</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I27" s="19"/>
+    </row>
+    <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>7</v>
       </c>
@@ -1546,22 +1623,262 @@
         <v>28</v>
       </c>
       <c r="C28" s="16">
+        <v>500</v>
+      </c>
+      <c r="D28" s="16">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0.72248000000000001</v>
+      </c>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="16">
         <v>100</v>
       </c>
-      <c r="D28" s="16">
-        <v>10</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="16">
+      <c r="D29" s="16">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="16">
         <v>0.73204999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="26">
+        <v>600</v>
+      </c>
+      <c r="D30" s="26">
+        <v>10</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0.66984999999999995</v>
+      </c>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="26">
+        <v>600</v>
+      </c>
+      <c r="D31" s="26">
+        <v>10</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="26">
+        <v>200</v>
+      </c>
+      <c r="D32" s="26">
+        <v>10</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0.72248000000000001</v>
+      </c>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="26">
+        <v>100</v>
+      </c>
+      <c r="D33" s="26">
+        <v>10</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="16">
+        <v>600</v>
+      </c>
+      <c r="D34" s="16">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="16">
+        <v>400</v>
+      </c>
+      <c r="D35" s="16">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="16">
+        <v>200</v>
+      </c>
+      <c r="D36" s="16">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="16">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="16">
+        <v>100</v>
+      </c>
+      <c r="D37" s="16">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0.71291000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1576,7 +1893,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1584,6 +1901,7 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.58203125" customWidth="1"/>
     <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="29.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1592,6 +1910,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="6"/>
+      <c r="D1" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1601,6 +1923,12 @@
         <v>16</v>
       </c>
       <c r="C2" s="5"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -1609,6 +1937,12 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1617,6 +1951,12 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1625,6 +1965,12 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1633,6 +1979,12 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1641,6 +1993,10 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
+      <c r="D7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1662,8 +2018,10 @@
       <c r="G12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F44AC6-BD0E-4D0B-8B15-F6DBA66485D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D736F0-97C4-4A41-B596-AE32B2687153}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="59">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,25 +528,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1668,216 +1668,378 @@
         <v>0.73204999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="22">
         <v>600</v>
       </c>
-      <c r="D30" s="26">
-        <v>10</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="26">
+      <c r="D30" s="22">
+        <v>10</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="22">
         <v>0.66984999999999995</v>
       </c>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="26" t="s">
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="22">
+        <v>300</v>
+      </c>
+      <c r="D31" s="22">
+        <v>10</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="22">
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="22">
+        <v>200</v>
+      </c>
+      <c r="D32" s="22">
+        <v>10</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="22">
+        <v>0.72248000000000001</v>
+      </c>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="22">
+        <v>100</v>
+      </c>
+      <c r="D33" s="22">
+        <v>10</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="22">
+        <v>80</v>
+      </c>
+      <c r="D34" s="22">
+        <v>10</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="22">
+        <v>50</v>
+      </c>
+      <c r="D35" s="22">
+        <v>10</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="22">
+        <v>0.70813000000000004</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="22">
+        <v>20</v>
+      </c>
+      <c r="D36" s="22">
+        <v>10</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="22">
+        <v>0.69377</v>
+      </c>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="22">
+        <v>5</v>
+      </c>
+      <c r="D37" s="22">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="22">
+        <v>0.69855999999999996</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="16">
         <v>600</v>
       </c>
-      <c r="D31" s="26">
-        <v>10</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="26">
-        <v>0.71291000000000004</v>
-      </c>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="26">
+      <c r="D38" s="16">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="16">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="16">
+        <v>500</v>
+      </c>
+      <c r="D39" s="16">
+        <v>10</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0.76075999999999999</v>
+      </c>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="16">
+        <v>400</v>
+      </c>
+      <c r="D40" s="16">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="16">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="16">
+        <v>300</v>
+      </c>
+      <c r="D41" s="16">
+        <v>10</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="16">
         <v>200</v>
       </c>
-      <c r="D32" s="26">
-        <v>10</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="26">
-        <v>0.72248000000000001</v>
-      </c>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="26">
+      <c r="D42" s="16">
+        <v>10</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="16">
         <v>100</v>
       </c>
-      <c r="D33" s="26">
-        <v>10</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="26">
-        <v>0.71291000000000004</v>
-      </c>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="16">
-        <v>600</v>
-      </c>
-      <c r="D34" s="16">
-        <v>10</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="16">
-        <v>0.75119000000000002</v>
-      </c>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="16">
-        <v>400</v>
-      </c>
-      <c r="D35" s="16">
-        <v>10</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="16">
-        <v>200</v>
-      </c>
-      <c r="D36" s="16">
-        <v>10</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="16">
-        <v>0.73684000000000005</v>
-      </c>
-      <c r="I36" s="16"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="16">
-        <v>100</v>
-      </c>
-      <c r="D37" s="16">
-        <v>10</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="16">
+      <c r="D43" s="16">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="16">
         <v>0.71291000000000004</v>
       </c>
     </row>
@@ -1905,15 +2067,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1993,10 +2155,10 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -2034,7 +2196,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D736F0-97C4-4A41-B596-AE32B2687153}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F9A8F-C558-429D-902C-728AFF128D02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="63">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,107 @@
   </si>
   <si>
     <t>model1보다 더 간단한 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model1과는 최악의 조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">100번 학습했을 때 가장 성능이 좋으므로
+학습을 조금만 시켰을 때 더 좋은 성능을 내는지 확인
+-&gt; 100~200사이도 확인해봐야겠다.
+--&gt; 160 to 165: 5 epoch 동안 큰 변화가 있어보인다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>좀 더 단순한 모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 만들어봐야겠다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>batch사이즈를 줄이면 더 섬세한 특징을 잡아서
+성능이 더 높아지지 않을까해서 batch size=1로 학습시켜봄
+-&gt; 1이나 10이나 둘 다 작은 사이즈라 별반 차이가 없는 듯하다.
+일단</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> batch size를 10으로 통일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">점수가 너무 낮으므로
+혹시 학습을 조금만 시켰을 때 더 좋은 성능을 내는 것인지 확인
+-&gt; feature6_3  ['Pclass', 'Name','Age','Family','Fare', 'Cabin_s']
+은  일단 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model1과는 좋은 성능을 내지못하는 것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>을 확인함</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +387,23 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -464,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +665,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -992,7 +1131,9 @@
       <c r="H4" s="19">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="33" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
@@ -1019,7 +1160,7 @@
       <c r="H5" s="19">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
@@ -1046,7 +1187,7 @@
       <c r="H6" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
@@ -1073,7 +1214,7 @@
       <c r="H7" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
@@ -1100,7 +1241,7 @@
       <c r="H8" s="19">
         <v>0.75119000000000002</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
@@ -1127,7 +1268,7 @@
       <c r="H9" s="19">
         <v>0.75597999999999999</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
@@ -1154,7 +1295,7 @@
       <c r="H10" s="19">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
@@ -1181,7 +1322,9 @@
       <c r="H11" s="16">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="31" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
@@ -1208,7 +1351,7 @@
       <c r="H12" s="16">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
@@ -1235,7 +1378,7 @@
       <c r="H13" s="16">
         <v>0.76075999999999999</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
@@ -1245,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="16">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="D14" s="16">
         <v>10</v>
@@ -1259,10 +1402,10 @@
       <c r="G14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="16">
-        <v>0.77510999999999997</v>
-      </c>
-      <c r="I14" s="16"/>
+      <c r="H14" s="34">
+        <v>0.74641000000000002</v>
+      </c>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
@@ -1272,7 +1415,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="16">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="D15" s="16">
         <v>10</v>
@@ -1286,10 +1429,10 @@
       <c r="G15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="16">
-        <v>0.77510999999999997</v>
-      </c>
-      <c r="I15" s="16"/>
+      <c r="H15" s="34">
+        <v>0.73204999999999998</v>
+      </c>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
@@ -1299,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="16">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="D16" s="16">
         <v>10</v>
@@ -1313,10 +1456,10 @@
       <c r="G16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="16">
-        <v>0.77510999999999997</v>
-      </c>
-      <c r="I16" s="16"/>
+      <c r="H16" s="34">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
@@ -1326,142 +1469,142 @@
         <v>26</v>
       </c>
       <c r="C17" s="16">
+        <v>100</v>
+      </c>
+      <c r="D17" s="16">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16">
+        <v>90</v>
+      </c>
+      <c r="D18" s="16">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="16">
+        <v>70</v>
+      </c>
+      <c r="D19" s="16">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="16">
         <v>50</v>
       </c>
-      <c r="D17" s="16">
-        <v>10</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="16">
+      <c r="D20" s="16">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="16">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="19">
-        <v>500</v>
-      </c>
-      <c r="D18" s="19">
-        <v>10</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0.74641000000000002</v>
-      </c>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="19">
-        <v>300</v>
-      </c>
-      <c r="D19" s="19">
-        <v>10</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0.76554999999999995</v>
-      </c>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="19">
-        <v>200</v>
-      </c>
-      <c r="D20" s="19">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0.76554999999999995</v>
-      </c>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="19">
-        <v>100</v>
-      </c>
-      <c r="D21" s="19">
-        <v>10</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0.7177</v>
-      </c>
-      <c r="I21" s="19"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="16">
+        <v>40</v>
+      </c>
+      <c r="D21" s="16">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C22" s="16">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="D22" s="16">
         <v>10</v>
@@ -1476,100 +1619,100 @@
         <v>22</v>
       </c>
       <c r="H22" s="16">
+        <v>0.69377</v>
+      </c>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="19">
+        <v>500</v>
+      </c>
+      <c r="D23" s="19">
+        <v>10</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="19">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="16">
-        <v>500</v>
-      </c>
-      <c r="D23" s="16">
-        <v>10</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0.75597999999999999</v>
-      </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="16">
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="19">
+        <v>300</v>
+      </c>
+      <c r="D24" s="19">
+        <v>10</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0.76554999999999995</v>
+      </c>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="19">
         <v>200</v>
       </c>
-      <c r="D24" s="16">
-        <v>10</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="16">
-        <v>0.75119000000000002</v>
-      </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="16">
-        <v>100</v>
-      </c>
-      <c r="D25" s="16">
-        <v>10</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0.73684000000000005</v>
-      </c>
-      <c r="I25" s="16"/>
+      <c r="D25" s="19">
+        <v>10</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.76554999999999995</v>
+      </c>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C26" s="19">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D26" s="19">
         <v>10</v>
@@ -1584,43 +1727,43 @@
         <v>22</v>
       </c>
       <c r="H26" s="19">
-        <v>0.72726999999999997</v>
+        <v>0.7177</v>
       </c>
       <c r="I26" s="19"/>
     </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="19">
-        <v>200</v>
-      </c>
-      <c r="D27" s="19">
-        <v>10</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0.74161999999999995</v>
-      </c>
-      <c r="I27" s="19"/>
+    <row r="27" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="16">
+        <v>600</v>
+      </c>
+      <c r="D27" s="16">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.74641000000000002</v>
+      </c>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C28" s="16">
         <v>500</v>
@@ -1638,168 +1781,170 @@
         <v>22</v>
       </c>
       <c r="H28" s="16">
+        <v>0.75597999999999999</v>
+      </c>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="16">
+        <v>200</v>
+      </c>
+      <c r="D29" s="16">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="16">
+        <v>100</v>
+      </c>
+      <c r="D30" s="16">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="19">
+        <v>500</v>
+      </c>
+      <c r="D31" s="19">
+        <v>10</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="19">
+        <v>200</v>
+      </c>
+      <c r="D32" s="19">
+        <v>10</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="19">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="16">
+        <v>500</v>
+      </c>
+      <c r="D33" s="16">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="16">
         <v>0.72248000000000001</v>
       </c>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C34" s="16">
         <v>100</v>
       </c>
-      <c r="D29" s="16">
-        <v>10</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="16">
+      <c r="D34" s="16">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="16">
         <v>0.73204999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="22">
-        <v>600</v>
-      </c>
-      <c r="D30" s="22">
-        <v>10</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="22">
-        <v>0.66984999999999995</v>
-      </c>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="22">
-        <v>300</v>
-      </c>
-      <c r="D31" s="22">
-        <v>10</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="22">
-        <v>0.71291000000000004</v>
-      </c>
-      <c r="I31" s="22"/>
-    </row>
-    <row r="32" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="22">
-        <v>200</v>
-      </c>
-      <c r="D32" s="22">
-        <v>10</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="22">
-        <v>0.72248000000000001</v>
-      </c>
-      <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="22">
-        <v>100</v>
-      </c>
-      <c r="D33" s="22">
-        <v>10</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0.71291000000000004</v>
-      </c>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="22">
-        <v>80</v>
-      </c>
-      <c r="D34" s="22">
-        <v>10</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
@@ -1809,7 +1954,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="22">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="D35" s="22">
         <v>10</v>
@@ -1824,9 +1969,11 @@
         <v>22</v>
       </c>
       <c r="H35" s="22">
-        <v>0.70813000000000004</v>
-      </c>
-      <c r="I35" s="22"/>
+        <v>0.66984999999999995</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
@@ -1836,7 +1983,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="22">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="D36" s="22">
         <v>10</v>
@@ -1851,9 +1998,9 @@
         <v>22</v>
       </c>
       <c r="H36" s="22">
-        <v>0.69377</v>
-      </c>
-      <c r="I36" s="22"/>
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
@@ -1863,161 +2010,161 @@
         <v>34</v>
       </c>
       <c r="C37" s="22">
+        <v>200</v>
+      </c>
+      <c r="D37" s="22">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="22">
+        <v>0.72248000000000001</v>
+      </c>
+      <c r="I37" s="28"/>
+    </row>
+    <row r="38" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="22">
+        <v>100</v>
+      </c>
+      <c r="D38" s="22">
+        <v>10</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="22">
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" s="23" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="29">
+        <v>80</v>
+      </c>
+      <c r="D39" s="22">
+        <v>10</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="22">
+        <v>0.67942000000000002</v>
+      </c>
+      <c r="I39" s="28"/>
+    </row>
+    <row r="40" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="29">
+        <v>50</v>
+      </c>
+      <c r="D40" s="22">
+        <v>10</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0.70813000000000004</v>
+      </c>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="29">
+        <v>20</v>
+      </c>
+      <c r="D41" s="22">
+        <v>10</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0.69377</v>
+      </c>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="29">
         <v>5</v>
       </c>
-      <c r="D37" s="22">
-        <v>10</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="22">
+      <c r="D42" s="22">
+        <v>10</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="22">
         <v>0.69855999999999996</v>
       </c>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="16">
-        <v>600</v>
-      </c>
-      <c r="D38" s="16">
-        <v>10</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" s="16">
-        <v>0.75119000000000002</v>
-      </c>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="16">
-        <v>500</v>
-      </c>
-      <c r="D39" s="16">
-        <v>10</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" s="16">
-        <v>0.76075999999999999</v>
-      </c>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="16">
-        <v>400</v>
-      </c>
-      <c r="D40" s="16">
-        <v>10</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="16">
-        <v>0.77032999999999996</v>
-      </c>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="16">
-        <v>300</v>
-      </c>
-      <c r="D41" s="16">
-        <v>10</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="16">
-        <v>0.75119000000000002</v>
-      </c>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="16">
-        <v>200</v>
-      </c>
-      <c r="D42" s="16">
-        <v>10</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" s="16">
-        <v>0.73684000000000005</v>
-      </c>
-      <c r="I42" s="16"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>7</v>
       </c>
@@ -2025,25 +2172,165 @@
         <v>35</v>
       </c>
       <c r="C43" s="16">
+        <v>600</v>
+      </c>
+      <c r="D43" s="16">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="16">
+        <v>500</v>
+      </c>
+      <c r="D44" s="16">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0.76075999999999999</v>
+      </c>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="16">
+        <v>400</v>
+      </c>
+      <c r="D45" s="16">
+        <v>10</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="16">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="16">
+        <v>300</v>
+      </c>
+      <c r="D46" s="16">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="16">
+        <v>200</v>
+      </c>
+      <c r="D47" s="16">
+        <v>10</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="16">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="16">
         <v>100</v>
       </c>
-      <c r="D43" s="16">
-        <v>10</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="16">
+      <c r="D48" s="16">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="16">
         <v>0.71291000000000004</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I35:I42"/>
+    <mergeCell ref="I11:I22"/>
+    <mergeCell ref="I4:I10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -2196,14 +2483,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
     <col min="2" max="2" width="80.4140625" customWidth="1"/>
-    <col min="3" max="3" width="18.58203125" customWidth="1"/>
+    <col min="3" max="3" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -2302,6 +2589,9 @@
       </c>
       <c r="B11" s="8" t="s">
         <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F9A8F-C558-429D-902C-728AFF128D02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75561183-B162-44E9-9DF9-3F79E8811599}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="64">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,9 @@
       <t>을 확인함</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_all3</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -655,6 +658,33 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,27 +695,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1002,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1131,7 +1140,7 @@
       <c r="H4" s="19">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1322,7 +1331,7 @@
       <c r="H11" s="16">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="29" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1402,7 +1411,7 @@
       <c r="G14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="25">
         <v>0.74641000000000002</v>
       </c>
       <c r="I14" s="30"/>
@@ -1429,7 +1438,7 @@
       <c r="G15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="25">
         <v>0.73204999999999998</v>
       </c>
       <c r="I15" s="30"/>
@@ -1456,7 +1465,7 @@
       <c r="G16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="25">
         <v>0.77032999999999996</v>
       </c>
       <c r="I16" s="30"/>
@@ -2063,7 +2072,7 @@
       <c r="B39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="24">
         <v>80</v>
       </c>
       <c r="D39" s="22">
@@ -2090,7 +2099,7 @@
       <c r="B40" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="24">
         <v>50</v>
       </c>
       <c r="D40" s="22">
@@ -2110,14 +2119,14 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="24">
         <v>20</v>
       </c>
       <c r="D41" s="22">
@@ -2144,7 +2153,7 @@
       <c r="B42" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="24">
         <v>5</v>
       </c>
       <c r="D42" s="22">
@@ -2325,11 +2334,281 @@
         <v>0.71291000000000004</v>
       </c>
     </row>
+    <row r="49" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="22">
+        <v>500</v>
+      </c>
+      <c r="D49" s="22">
+        <v>10</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="22">
+        <v>0.66027999999999998</v>
+      </c>
+      <c r="I49" s="22"/>
+    </row>
+    <row r="50" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="22">
+        <v>10</v>
+      </c>
+      <c r="D50" s="22">
+        <v>10</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.64593</v>
+      </c>
+      <c r="I50" s="22"/>
+    </row>
+    <row r="51" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="22">
+        <v>20</v>
+      </c>
+      <c r="D51" s="22">
+        <v>10</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="22">
+        <v>0.69377</v>
+      </c>
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="22">
+        <v>30</v>
+      </c>
+      <c r="D52" s="22">
+        <v>10</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" s="22">
+        <v>0.70813000000000004</v>
+      </c>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="22">
+        <v>40</v>
+      </c>
+      <c r="D53" s="22">
+        <v>10</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0.70813000000000004</v>
+      </c>
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="22">
+        <v>50</v>
+      </c>
+      <c r="D54" s="22">
+        <v>10</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="22">
+        <v>0.67464000000000002</v>
+      </c>
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="22">
+        <v>100</v>
+      </c>
+      <c r="D55" s="22">
+        <v>10</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="22">
+        <v>0.68898999999999999</v>
+      </c>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="26">
+        <v>500</v>
+      </c>
+      <c r="D56" s="26">
+        <v>10</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="26">
+        <v>0.69377</v>
+      </c>
+      <c r="I56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="26">
+        <v>100</v>
+      </c>
+      <c r="D57" s="26">
+        <v>10</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="26"/>
+      <c r="I57" s="30"/>
+    </row>
+    <row r="58" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="26">
+        <v>50</v>
+      </c>
+      <c r="D58" s="26">
+        <v>10</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="30"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I59" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="I35:I42"/>
     <mergeCell ref="I11:I22"/>
     <mergeCell ref="I4:I10"/>
+    <mergeCell ref="I56:I59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2354,15 +2633,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="33"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2442,10 +2721,10 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -2483,7 +2762,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75561183-B162-44E9-9DF9-3F79E8811599}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF06C23-9279-4D4F-912E-D654F2E7F777}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="64">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1011,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="I56" s="30"/>
     </row>
-    <row r="57" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>7</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>63</v>
       </c>
       <c r="C57" s="26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D57" s="26">
         <v>10</v>
@@ -2572,43 +2572,20 @@
       <c r="G57" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="26"/>
+      <c r="H57" s="26">
+        <v>0.72726999999999997</v>
+      </c>
       <c r="I57" s="30"/>
     </row>
-    <row r="58" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="26">
-        <v>50</v>
-      </c>
-      <c r="D58" s="26">
-        <v>10</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H58" s="26"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I58" s="30"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I59" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="I35:I42"/>
     <mergeCell ref="I11:I22"/>
     <mergeCell ref="I4:I10"/>
-    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="I56:I58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF06C23-9279-4D4F-912E-D654F2E7F777}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D229F5-5CFB-4497-981E-6763442A09ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="68">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>units = 1, activation = 'sigmoid'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>model1보다 더 간단한 모델</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,6 +367,32 @@
   </si>
   <si>
     <t>feature_all3</t>
+  </si>
+  <si>
+    <t>model2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note: model1보다 더 간단한 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model2에 데이터를 적용시켜 보았다. 
+처음엔 1000 epoch를 학습시켰다.
+하지만 결과를 보니 1000 epoch까지 안해도 될 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~110, 110~120사이의 값도 보고싶어서 
+다시 학습을 시켜보았다.
+이번엔 1 epoch마다 weights파일을 저장했다.
+-&gt; model2에 train[feature_all]을 input으로 넣고 
+102번 학습시켰을 때 가장 성능이 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -461,7 +483,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -579,13 +601,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +738,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -695,6 +769,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1140,8 +1235,8 @@
       <c r="H4" s="19">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I4" s="31" t="s">
-        <v>61</v>
+      <c r="I4" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
@@ -1169,7 +1264,7 @@
       <c r="H5" s="19">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
@@ -1196,7 +1291,7 @@
       <c r="H6" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I6" s="32"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
@@ -1223,7 +1318,7 @@
       <c r="H7" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
@@ -1250,7 +1345,7 @@
       <c r="H8" s="19">
         <v>0.75119000000000002</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
@@ -1277,7 +1372,7 @@
       <c r="H9" s="19">
         <v>0.75597999999999999</v>
       </c>
-      <c r="I9" s="32"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
@@ -1304,7 +1399,7 @@
       <c r="H10" s="19">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I10" s="32"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
@@ -1331,8 +1426,8 @@
       <c r="H11" s="16">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>60</v>
+      <c r="I11" s="31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
@@ -1360,7 +1455,7 @@
       <c r="H12" s="16">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
@@ -1387,7 +1482,7 @@
       <c r="H13" s="16">
         <v>0.76075999999999999</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
@@ -1414,7 +1509,7 @@
       <c r="H14" s="25">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
@@ -1441,7 +1536,7 @@
       <c r="H15" s="25">
         <v>0.73204999999999998</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
@@ -1468,7 +1563,7 @@
       <c r="H16" s="25">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
@@ -1495,7 +1590,7 @@
       <c r="H17" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
@@ -1522,7 +1617,7 @@
       <c r="H18" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
@@ -1549,7 +1644,7 @@
       <c r="H19" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
@@ -1576,7 +1671,7 @@
       <c r="H20" s="16">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
@@ -1603,7 +1698,7 @@
       <c r="H21" s="16">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
@@ -1630,7 +1725,7 @@
       <c r="H22" s="16">
         <v>0.69377</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="18" t="s">
@@ -1980,8 +2075,8 @@
       <c r="H35" s="22">
         <v>0.66984999999999995</v>
       </c>
-      <c r="I35" s="28" t="s">
-        <v>62</v>
+      <c r="I35" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
@@ -2009,7 +2104,7 @@
       <c r="H36" s="22">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I36" s="28"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
@@ -2036,7 +2131,7 @@
       <c r="H37" s="22">
         <v>0.72248000000000001</v>
       </c>
-      <c r="I37" s="28"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
@@ -2063,7 +2158,7 @@
       <c r="H38" s="22">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I38" s="28"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" s="23" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
@@ -2090,7 +2185,7 @@
       <c r="H39" s="22">
         <v>0.67942000000000002</v>
       </c>
-      <c r="I39" s="28"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
@@ -2117,7 +2212,7 @@
       <c r="H40" s="22">
         <v>0.70813000000000004</v>
       </c>
-      <c r="I40" s="28"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
@@ -2144,7 +2239,7 @@
       <c r="H41" s="22">
         <v>0.69377</v>
       </c>
-      <c r="I41" s="28"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
@@ -2171,7 +2266,7 @@
       <c r="H42" s="22">
         <v>0.69855999999999996</v>
       </c>
-      <c r="I42" s="28"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
@@ -2527,8 +2622,8 @@
       <c r="A56" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>63</v>
+      <c r="B56" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="C56" s="26">
         <v>500</v>
@@ -2548,44 +2643,533 @@
       <c r="H56" s="26">
         <v>0.69377</v>
       </c>
-      <c r="I56" s="30"/>
-    </row>
-    <row r="57" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="28">
+        <v>10</v>
+      </c>
+      <c r="D57" s="28">
+        <v>10</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="28">
+        <v>0.66027999999999998</v>
+      </c>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="28">
+        <v>20</v>
+      </c>
+      <c r="D58" s="28">
+        <v>10</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="28">
+        <v>0.67464000000000002</v>
+      </c>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="28">
+        <v>40</v>
+      </c>
+      <c r="D59" s="28">
+        <v>10</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="28">
+        <v>0.7177</v>
+      </c>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="28">
+        <v>50</v>
+      </c>
+      <c r="D60" s="28">
+        <v>10</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="28">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="28">
+        <v>60</v>
+      </c>
+      <c r="D61" s="28">
+        <v>10</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" s="28">
+        <v>0.74161999999999995</v>
+      </c>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="26">
+        <v>70</v>
+      </c>
+      <c r="D62" s="26">
+        <v>10</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" s="26">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="28">
+        <v>80</v>
+      </c>
+      <c r="D63" s="28">
+        <v>10</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="28">
+        <v>0.72726999999999997</v>
+      </c>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="1:9" s="41" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" s="40">
+        <v>100</v>
+      </c>
+      <c r="D64" s="40">
+        <v>10</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="40">
+        <v>0.71291000000000004</v>
+      </c>
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="26">
+      <c r="B65" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="22">
         <v>50</v>
       </c>
-      <c r="D57" s="26">
-        <v>10</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="26">
-        <v>0.3</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" s="26">
-        <v>0.72726999999999997</v>
-      </c>
-      <c r="I57" s="30"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I58" s="30"/>
+      <c r="D65" s="22">
+        <v>10</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" s="22">
+        <v>0.76075999999999999</v>
+      </c>
+      <c r="I65" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="22">
+        <v>100</v>
+      </c>
+      <c r="D66" s="22">
+        <v>10</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="45">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="I66" s="43"/>
+    </row>
+    <row r="67" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="22">
+        <v>110</v>
+      </c>
+      <c r="D67" s="22">
+        <v>10</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="45">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I67" s="43"/>
+    </row>
+    <row r="68" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="22">
+        <v>120</v>
+      </c>
+      <c r="D68" s="22">
+        <v>10</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="45">
+        <v>0.75597999999999999</v>
+      </c>
+      <c r="I68" s="43"/>
+    </row>
+    <row r="69" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="22">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="22">
+        <v>10</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" s="22">
+        <v>0.73684000000000005</v>
+      </c>
+      <c r="I69" s="43"/>
+    </row>
+    <row r="70" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="22">
+        <v>101</v>
+      </c>
+      <c r="D70" s="22">
+        <v>10</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="24">
+        <v>0.76554999999999995</v>
+      </c>
+      <c r="I70" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="22">
+        <v>102</v>
+      </c>
+      <c r="D71" s="22">
+        <v>10</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" s="24">
+        <v>0.79425000000000001</v>
+      </c>
+      <c r="I71" s="43"/>
+    </row>
+    <row r="72" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="22">
+        <v>103</v>
+      </c>
+      <c r="D72" s="22">
+        <v>10</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" s="24">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="I72" s="43"/>
+    </row>
+    <row r="73" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="22">
+        <v>104</v>
+      </c>
+      <c r="D73" s="22">
+        <v>10</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" s="24">
+        <v>0.78468000000000004</v>
+      </c>
+      <c r="I73" s="43"/>
+    </row>
+    <row r="74" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="22">
+        <v>105</v>
+      </c>
+      <c r="D74" s="22">
+        <v>10</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="24">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I74" s="43"/>
+    </row>
+    <row r="75" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="22">
+        <v>112</v>
+      </c>
+      <c r="D75" s="22">
+        <v>10</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="24">
+        <v>0.78947000000000001</v>
+      </c>
+      <c r="I75" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="I70:I75"/>
     <mergeCell ref="I35:I42"/>
     <mergeCell ref="I11:I22"/>
     <mergeCell ref="I4:I10"/>
-    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="I56:I64"/>
+    <mergeCell ref="I65:I69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,7 +3182,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2610,15 +3194,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="33"/>
+      <c r="A1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="35"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="35"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -2698,10 +3282,10 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="36"/>
+      <c r="D7" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -2847,7 +3431,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D229F5-5CFB-4497-981E-6763442A09ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE0263-C733-4231-B0E7-E6C141F29B59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
+    <workbookView xWindow="-6880" yWindow="3030" windowWidth="14400" windowHeight="7360" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -744,9 +744,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,6 +774,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,27 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1235,7 +1235,7 @@
       <c r="H4" s="19">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="H5" s="19">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
@@ -1291,7 +1291,7 @@
       <c r="H6" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
@@ -1318,7 +1318,7 @@
       <c r="H7" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
@@ -1345,7 +1345,7 @@
       <c r="H8" s="19">
         <v>0.75119000000000002</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
@@ -1372,7 +1372,7 @@
       <c r="H9" s="19">
         <v>0.75597999999999999</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
@@ -1399,7 +1399,7 @@
       <c r="H10" s="19">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
@@ -1426,7 +1426,7 @@
       <c r="H11" s="16">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="36" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="H12" s="16">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I12" s="32"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
@@ -1482,7 +1482,7 @@
       <c r="H13" s="16">
         <v>0.76075999999999999</v>
       </c>
-      <c r="I13" s="32"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
@@ -1509,7 +1509,7 @@
       <c r="H14" s="25">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I14" s="32"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
@@ -1536,7 +1536,7 @@
       <c r="H15" s="25">
         <v>0.73204999999999998</v>
       </c>
-      <c r="I15" s="32"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
@@ -1563,7 +1563,7 @@
       <c r="H16" s="25">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I16" s="32"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
@@ -1590,7 +1590,7 @@
       <c r="H17" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I17" s="32"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
@@ -1617,7 +1617,7 @@
       <c r="H18" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I18" s="32"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
@@ -1644,7 +1644,7 @@
       <c r="H19" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I19" s="32"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
@@ -1671,7 +1671,7 @@
       <c r="H20" s="16">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I20" s="32"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
@@ -1698,7 +1698,7 @@
       <c r="H21" s="16">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I21" s="32"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
@@ -1725,7 +1725,7 @@
       <c r="H22" s="16">
         <v>0.69377</v>
       </c>
-      <c r="I22" s="32"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="18" t="s">
@@ -2075,7 +2075,7 @@
       <c r="H35" s="22">
         <v>0.66984999999999995</v>
       </c>
-      <c r="I35" s="30" t="s">
+      <c r="I35" s="34" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       <c r="H36" s="22">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I36" s="30"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
@@ -2131,7 +2131,7 @@
       <c r="H37" s="22">
         <v>0.72248000000000001</v>
       </c>
-      <c r="I37" s="30"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
@@ -2158,7 +2158,7 @@
       <c r="H38" s="22">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I38" s="30"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" s="23" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
@@ -2185,7 +2185,7 @@
       <c r="H39" s="22">
         <v>0.67942000000000002</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
@@ -2212,7 +2212,7 @@
       <c r="H40" s="22">
         <v>0.70813000000000004</v>
       </c>
-      <c r="I40" s="30"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
@@ -2239,7 +2239,7 @@
       <c r="H41" s="22">
         <v>0.69377</v>
       </c>
-      <c r="I41" s="30"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
@@ -2266,7 +2266,7 @@
       <c r="H42" s="22">
         <v>0.69855999999999996</v>
       </c>
-      <c r="I42" s="30"/>
+      <c r="I42" s="34"/>
     </row>
     <row r="43" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
@@ -2643,7 +2643,7 @@
       <c r="H56" s="26">
         <v>0.69377</v>
       </c>
-      <c r="I56" s="32"/>
+      <c r="I56" s="37"/>
     </row>
     <row r="57" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
@@ -2670,7 +2670,7 @@
       <c r="H57" s="28">
         <v>0.66027999999999998</v>
       </c>
-      <c r="I57" s="32"/>
+      <c r="I57" s="37"/>
     </row>
     <row r="58" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="15" t="s">
@@ -2697,7 +2697,7 @@
       <c r="H58" s="28">
         <v>0.67464000000000002</v>
       </c>
-      <c r="I58" s="32"/>
+      <c r="I58" s="37"/>
     </row>
     <row r="59" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="15" t="s">
@@ -2724,7 +2724,7 @@
       <c r="H59" s="28">
         <v>0.7177</v>
       </c>
-      <c r="I59" s="32"/>
+      <c r="I59" s="37"/>
     </row>
     <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="15" t="s">
@@ -2751,7 +2751,7 @@
       <c r="H60" s="28">
         <v>0.72726999999999997</v>
       </c>
-      <c r="I60" s="32"/>
+      <c r="I60" s="37"/>
     </row>
     <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
@@ -2778,7 +2778,7 @@
       <c r="H61" s="28">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I61" s="32"/>
+      <c r="I61" s="37"/>
     </row>
     <row r="62" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="15" t="s">
@@ -2805,7 +2805,7 @@
       <c r="H62" s="26">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I62" s="32"/>
+      <c r="I62" s="37"/>
     </row>
     <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="15" t="s">
@@ -2832,34 +2832,34 @@
       <c r="H63" s="28">
         <v>0.72726999999999997</v>
       </c>
-      <c r="I63" s="32"/>
-    </row>
-    <row r="64" spans="1:9" s="41" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="40" t="s">
+      <c r="I63" s="37"/>
+    </row>
+    <row r="64" spans="1:9" s="32" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="31">
         <v>100</v>
       </c>
-      <c r="D64" s="40">
-        <v>10</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="G64" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" s="40">
+      <c r="D64" s="31">
+        <v>10</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="31">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I64" s="42"/>
+      <c r="I64" s="40"/>
     </row>
     <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="21" t="s">
@@ -2886,7 +2886,7 @@
       <c r="H65" s="22">
         <v>0.76075999999999999</v>
       </c>
-      <c r="I65" s="44" t="s">
+      <c r="I65" s="41" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2912,10 +2912,10 @@
       <c r="G66" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="45">
+      <c r="H66" s="33">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I66" s="43"/>
+      <c r="I66" s="35"/>
     </row>
     <row r="67" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="21" t="s">
@@ -2939,10 +2939,10 @@
       <c r="G67" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H67" s="45">
+      <c r="H67" s="33">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I67" s="43"/>
+      <c r="I67" s="35"/>
     </row>
     <row r="68" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="21" t="s">
@@ -2966,10 +2966,10 @@
       <c r="G68" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="45">
+      <c r="H68" s="33">
         <v>0.75597999999999999</v>
       </c>
-      <c r="I68" s="43"/>
+      <c r="I68" s="35"/>
     </row>
     <row r="69" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="21" t="s">
@@ -2996,7 +2996,7 @@
       <c r="H69" s="22">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I69" s="43"/>
+      <c r="I69" s="35"/>
     </row>
     <row r="70" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="21" t="s">
@@ -3023,7 +3023,7 @@
       <c r="H70" s="24">
         <v>0.76554999999999995</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="34" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       <c r="H71" s="24">
         <v>0.79425000000000001</v>
       </c>
-      <c r="I71" s="43"/>
+      <c r="I71" s="35"/>
     </row>
     <row r="72" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="21" t="s">
@@ -3079,7 +3079,7 @@
       <c r="H72" s="24">
         <v>0.77990000000000004</v>
       </c>
-      <c r="I72" s="43"/>
+      <c r="I72" s="35"/>
     </row>
     <row r="73" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="21" t="s">
@@ -3106,7 +3106,7 @@
       <c r="H73" s="24">
         <v>0.78468000000000004</v>
       </c>
-      <c r="I73" s="43"/>
+      <c r="I73" s="35"/>
     </row>
     <row r="74" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="21" t="s">
@@ -3133,7 +3133,7 @@
       <c r="H74" s="24">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I74" s="43"/>
+      <c r="I74" s="35"/>
     </row>
     <row r="75" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="21" t="s">
@@ -3160,7 +3160,7 @@
       <c r="H75" s="24">
         <v>0.78947000000000001</v>
       </c>
-      <c r="I75" s="43"/>
+      <c r="I75" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961E6CD2-75ED-43C0-A85B-2AC98E43BCA0}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3194,15 +3194,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="42"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -3282,10 +3282,10 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="45"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -3322,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435B7095-D6E7-48AC-96FF-B01A9E4C98B1}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Titanic_DL/Titanic_DL_result.xlsx
+++ b/Titanic_DL/Titanic_DL_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds030\Desktop\github\Titanic\Titanic_DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CE0263-C733-4231-B0E7-E6C141F29B59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635DB59-FCC6-4E07-BEFF-2619E7FB06DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6880" yWindow="3030" windowWidth="14400" windowHeight="7360" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7DD7DFFA-55C1-4FF2-81BD-621110AE4683}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="70">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,12 +394,20 @@
 102번 학습시켰을 때 가장 성능이 좋다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>model2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +435,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -653,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +773,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,6 +810,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0566AD2C-C438-4E84-84A1-D7FB43D10CCE}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1235,7 +1264,7 @@
       <c r="H4" s="19">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="39" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1264,7 +1293,7 @@
       <c r="H5" s="19">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I5" s="39"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
@@ -1291,7 +1320,7 @@
       <c r="H6" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
@@ -1318,7 +1347,7 @@
       <c r="H7" s="19">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I7" s="39"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
@@ -1345,7 +1374,7 @@
       <c r="H8" s="19">
         <v>0.75119000000000002</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
@@ -1372,7 +1401,7 @@
       <c r="H9" s="19">
         <v>0.75597999999999999</v>
       </c>
-      <c r="I9" s="39"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
@@ -1399,7 +1428,7 @@
       <c r="H10" s="19">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
@@ -1426,7 +1455,7 @@
       <c r="H11" s="16">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="37" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1455,7 +1484,7 @@
       <c r="H12" s="16">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
@@ -1482,7 +1511,7 @@
       <c r="H13" s="16">
         <v>0.76075999999999999</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
@@ -1509,7 +1538,7 @@
       <c r="H14" s="25">
         <v>0.74641000000000002</v>
       </c>
-      <c r="I14" s="37"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
@@ -1536,7 +1565,7 @@
       <c r="H15" s="25">
         <v>0.73204999999999998</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
@@ -1563,7 +1592,7 @@
       <c r="H16" s="25">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
@@ -1590,7 +1619,7 @@
       <c r="H17" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I17" s="37"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
@@ -1617,7 +1646,7 @@
       <c r="H18" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I18" s="37"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
@@ -1644,7 +1673,7 @@
       <c r="H19" s="16">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15" t="s">
@@ -1671,7 +1700,7 @@
       <c r="H20" s="16">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
@@ -1698,7 +1727,7 @@
       <c r="H21" s="16">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I21" s="37"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
@@ -1725,7 +1754,7 @@
       <c r="H22" s="16">
         <v>0.69377</v>
       </c>
-      <c r="I22" s="37"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="18" t="s">
@@ -2075,7 +2104,7 @@
       <c r="H35" s="22">
         <v>0.66984999999999995</v>
       </c>
-      <c r="I35" s="34" t="s">
+      <c r="I35" s="35" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2104,7 +2133,7 @@
       <c r="H36" s="22">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="35"/>
     </row>
     <row r="37" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
@@ -2131,7 +2160,7 @@
       <c r="H37" s="22">
         <v>0.72248000000000001</v>
       </c>
-      <c r="I37" s="34"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
@@ -2158,7 +2187,7 @@
       <c r="H38" s="22">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I38" s="34"/>
+      <c r="I38" s="35"/>
     </row>
     <row r="39" spans="1:9" s="23" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
@@ -2185,7 +2214,7 @@
       <c r="H39" s="22">
         <v>0.67942000000000002</v>
       </c>
-      <c r="I39" s="34"/>
+      <c r="I39" s="35"/>
     </row>
     <row r="40" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
@@ -2212,7 +2241,7 @@
       <c r="H40" s="22">
         <v>0.70813000000000004</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="35"/>
     </row>
     <row r="41" spans="1:9" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
@@ -2239,7 +2268,7 @@
       <c r="H41" s="22">
         <v>0.69377</v>
       </c>
-      <c r="I41" s="34"/>
+      <c r="I41" s="35"/>
     </row>
     <row r="42" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
@@ -2266,7 +2295,7 @@
       <c r="H42" s="22">
         <v>0.69855999999999996</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="35"/>
     </row>
     <row r="43" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
@@ -2643,7 +2672,7 @@
       <c r="H56" s="26">
         <v>0.69377</v>
       </c>
-      <c r="I56" s="37"/>
+      <c r="I56" s="38"/>
     </row>
     <row r="57" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
@@ -2670,7 +2699,7 @@
       <c r="H57" s="28">
         <v>0.66027999999999998</v>
       </c>
-      <c r="I57" s="37"/>
+      <c r="I57" s="38"/>
     </row>
     <row r="58" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="15" t="s">
@@ -2697,7 +2726,7 @@
       <c r="H58" s="28">
         <v>0.67464000000000002</v>
       </c>
-      <c r="I58" s="37"/>
+      <c r="I58" s="38"/>
     </row>
     <row r="59" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="15" t="s">
@@ -2724,7 +2753,7 @@
       <c r="H59" s="28">
         <v>0.7177</v>
       </c>
-      <c r="I59" s="37"/>
+      <c r="I59" s="38"/>
     </row>
     <row r="60" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="15" t="s">
@@ -2751,7 +2780,7 @@
       <c r="H60" s="28">
         <v>0.72726999999999997</v>
       </c>
-      <c r="I60" s="37"/>
+      <c r="I60" s="38"/>
     </row>
     <row r="61" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
@@ -2778,7 +2807,7 @@
       <c r="H61" s="28">
         <v>0.74161999999999995</v>
       </c>
-      <c r="I61" s="37"/>
+      <c r="I61" s="38"/>
     </row>
     <row r="62" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="15" t="s">
@@ -2805,7 +2834,7 @@
       <c r="H62" s="26">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I62" s="37"/>
+      <c r="I62" s="38"/>
     </row>
     <row r="63" spans="1:9" s="29" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="15" t="s">
@@ -2832,7 +2861,7 @@
       <c r="H63" s="28">
         <v>0.72726999999999997</v>
       </c>
-      <c r="I63" s="37"/>
+      <c r="I63" s="38"/>
     </row>
     <row r="64" spans="1:9" s="32" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="30" t="s">
@@ -2859,7 +2888,7 @@
       <c r="H64" s="31">
         <v>0.71291000000000004</v>
       </c>
-      <c r="I64" s="40"/>
+      <c r="I64" s="41"/>
     </row>
     <row r="65" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="21" t="s">
@@ -2886,7 +2915,7 @@
       <c r="H65" s="22">
         <v>0.76075999999999999</v>
       </c>
-      <c r="I65" s="41" t="s">
+      <c r="I65" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2915,7 +2944,7 @@
       <c r="H66" s="33">
         <v>0.77032999999999996</v>
       </c>
-      <c r="I66" s="35"/>
+      <c r="I66" s="36"/>
     </row>
     <row r="67" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="21" t="s">
@@ -2942,7 +2971,7 @@
       <c r="H67" s="33">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I67" s="35"/>
+      <c r="I67" s="36"/>
     </row>
     <row r="68" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="21" t="s">
@@ -2969,7 +2998,7 @@
       <c r="H68" s="33">
         <v>0.75597999999999999</v>
       </c>
-      <c r="I68" s="35"/>
+      <c r="I68" s="36"/>
     </row>
     <row r="69" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="21" t="s">
@@ -2996,7 +3025,7 @@
       <c r="H69" s="22">
         <v>0.73684000000000005</v>
       </c>
-      <c r="I69" s="35"/>
+      <c r="I69" s="36"/>
     </row>
     <row r="70" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="21" t="s">
@@ -3023,7 +3052,7 @@
       <c r="H70" s="24">
         <v>0.76554999999999995</v>
       </c>
-      <c r="I70" s="34" t="s">
+      <c r="I70" s="35" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3049,10 +3078,10 @@
       <c r="G71" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="24">
+      <c r="H71" s="49">
         <v>0.79425000000000001</v>
       </c>
-      <c r="I71" s="35"/>
+      <c r="I71" s="36"/>
     </row>
     <row r="72" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="21" t="s">
@@ -3079,7 +3108,7 @@
       <c r="H72" s="24">
         <v>0.77990000000000004</v>
       </c>
-      <c r="I72" s="35"/>
+      <c r="I72" s="36"/>
     </row>
     <row r="73" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="21" t="s">
@@ -3106,7 +3135,7 @@
       <c r="H73" s="24">
         <v>0.78468000000000004</v>
       </c>
-      <c r="I73" s="35"/>
+      <c r="I73" s="36"/>
     </row>
     <row r="74" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="21" t="s">
@@ -3133,7 +3162,7 @@
       <c r="H74" s="24">
         <v>0.77510999999999997</v>
       </c>
-      <c r="I74" s="35"/>
+      <c r="I74" s="36"/>
     </row>
     <row r="75" spans="1:9" s="23" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="21" t="s">
@@ -3160,10 +3189,254 @@
       <c r="H75" s="24">
         <v>0.78947000000000001</v>
       </c>
-      <c r="I75" s="35"/>
+      <c r="I75" s="36"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="14">
+        <v>300</v>
+      </c>
+      <c r="D76" s="14">
+        <v>10</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="14">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="I76" s="48"/>
+    </row>
+    <row r="77" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="14">
+        <v>50</v>
+      </c>
+      <c r="D77" s="14">
+        <v>10</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I77" s="48"/>
+    </row>
+    <row r="78" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="14">
+        <v>100</v>
+      </c>
+      <c r="D78" s="14">
+        <v>10</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="14">
+        <v>0.75119000000000002</v>
+      </c>
+      <c r="I78" s="48"/>
+    </row>
+    <row r="79" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="14">
+        <v>200</v>
+      </c>
+      <c r="D79" s="14">
+        <v>10</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="47">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I79" s="48"/>
+    </row>
+    <row r="80" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="14">
+        <v>230</v>
+      </c>
+      <c r="D80" s="14">
+        <v>10</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="47">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I80" s="48"/>
+    </row>
+    <row r="81" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="14">
+        <v>240</v>
+      </c>
+      <c r="D81" s="14">
+        <v>10</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="47">
+        <v>0.77032999999999996</v>
+      </c>
+      <c r="I81" s="48"/>
+    </row>
+    <row r="82" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="14">
+        <v>260</v>
+      </c>
+      <c r="D82" s="14">
+        <v>10</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" s="47">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="I82" s="48"/>
+    </row>
+    <row r="83" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="14">
+        <v>280</v>
+      </c>
+      <c r="D83" s="14">
+        <v>10</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" s="14">
+        <v>0.75597999999999999</v>
+      </c>
+      <c r="I83" s="48"/>
+    </row>
+    <row r="84" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="14">
+        <v>290</v>
+      </c>
+      <c r="D84" s="14">
+        <v>10</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="14">
+        <v>0.77510999999999997</v>
+      </c>
+      <c r="I84" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="I76:I84"/>
     <mergeCell ref="I70:I75"/>
     <mergeCell ref="I35:I42"/>
     <mergeCell ref="I11:I22"/>
@@ -3194,15 +3467,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="42"/>
+      <c r="A1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="43"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -3282,10 +3555,10 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="45"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
